--- a/biology/Botanique/Thomas_Platter_le_Jeune/Thomas_Platter_le_Jeune.xlsx
+++ b/biology/Botanique/Thomas_Platter_le_Jeune/Thomas_Platter_le_Jeune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Platter dit le Jeune (Bâle 24 juillet 1574 - 4 décembre 1628) est un botaniste et médecin suisse. C'est le fils d'un second mariage de Thomas Platter le Vieux.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme son demi-frère de Félix Platter, né d'un premier mariage de son père, il effectue ses études de médecine à l'université de Montpellier en France. Il quitte Bâle en 1595 pour faire ses études à Montpellier, pour n'en revenir qu'en 1600 en Suisse, après avoir voyagé en Espagne, en France, en Angleterre et aux Pays-Bas. Dans les années 1604 et 1605, Thomas Platter a rédigé dans le dialecte bâlois un journal de voyage, sorte de récit d'initiation, au travers du sud et l'ouest de la France, du nord de l'Espagne et également des Pays-Bas et de l'Angleterre.
 Il devient professeur d'anatomie et de botanique en 1614[réf. souhaitée] et de médecine en 1624[réf. souhaitée] à l'université de Bâle en Suisse et termine sa carrière en tant que doyen et recteur. Dans le même temps, il exerce son activité de médecin.
